--- a/Заказы.xlsx
+++ b/Заказы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACHuev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACHuev\Desktop\Main-backup-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,6 +49,12 @@
     <t>Имя заказчика</t>
   </si>
   <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
     <t>(Все)</t>
   </si>
   <si>
@@ -62,12 +68,6 @@
   </si>
   <si>
     <t>Общий итог</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>Комментарий</t>
   </si>
 </sst>
 </file>
@@ -637,17 +637,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -676,17 +676,39 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="H4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="H7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -722,28 +744,28 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
